--- a/lms/algo/figs/sigs.xlsx
+++ b/lms/algo/figs/sigs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
   <si>
     <t>Known</t>
   </si>
@@ -19,12 +31,18 @@
     <t>d(n)</t>
   </si>
   <si>
+    <t>Human+Instrument</t>
+  </si>
+  <si>
     <t>signal noise.wav</t>
   </si>
   <si>
     <t>X(n)</t>
   </si>
   <si>
+    <t>Instrument</t>
+  </si>
+  <si>
     <t>noise.wav</t>
   </si>
   <si>
@@ -34,18 +52,27 @@
     <t>e(n)</t>
   </si>
   <si>
+    <t>Human estimate</t>
+  </si>
+  <si>
     <t>W(n)</t>
+  </si>
+  <si>
+    <t>Weight Vector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
     </font>
     <font/>
   </fonts>
@@ -69,6 +96,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -80,9 +110,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -99,19 +126,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -121,8 +154,328 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT h="25400" w="63500"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,52 +486,176 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="7.29"/>
+    <col customWidth="1" min="3" max="3" width="16.29"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3"/>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
